--- a/final/wheat.xlsx
+++ b/final/wheat.xlsx
@@ -1667,6 +1667,27 @@
       <c r="L22" t="n">
         <v>319</v>
       </c>
+      <c r="M22" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>300</v>
+      </c>
+      <c r="O22" t="n">
+        <v>320</v>
+      </c>
+      <c r="P22" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>350</v>
+      </c>
+      <c r="R22" t="n">
+        <v>350</v>
+      </c>
+      <c r="S22" t="n">
+        <v>323.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5306,6 +5327,24 @@
       </c>
       <c r="M84" t="n">
         <v>312.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>300</v>
+      </c>
+      <c r="O84" t="n">
+        <v>320</v>
+      </c>
+      <c r="P84" t="n">
+        <v>318</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>350</v>
+      </c>
+      <c r="R84" t="n">
+        <v>350</v>
+      </c>
+      <c r="S84" t="n">
+        <v>327.85</v>
       </c>
     </row>
     <row r="85">

--- a/final/wheat.xlsx
+++ b/final/wheat.xlsx
@@ -358,7 +358,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>Islamabad</t>
